--- a/data/pca/factorExposure/factorExposure_2015-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01696743814021654</v>
+        <v>0.01733396880183073</v>
       </c>
       <c r="C2">
-        <v>0.03124870809891449</v>
+        <v>-0.03110006794525403</v>
       </c>
       <c r="D2">
-        <v>-0.08685037812794939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1131042753466149</v>
+      </c>
+      <c r="E2">
+        <v>0.0770099573518303</v>
+      </c>
+      <c r="F2">
+        <v>-0.009231677206899162</v>
+      </c>
+      <c r="G2">
+        <v>-0.06960110043470054</v>
+      </c>
+      <c r="H2">
+        <v>0.08505325626692839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01550956916326417</v>
+        <v>0.008984173134542358</v>
       </c>
       <c r="C3">
-        <v>0.05462381465949618</v>
+        <v>-0.03603538265481077</v>
       </c>
       <c r="D3">
-        <v>-0.1340917993552294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07994351069515086</v>
+      </c>
+      <c r="E3">
+        <v>0.08204292092597863</v>
+      </c>
+      <c r="F3">
+        <v>-0.03944638939255625</v>
+      </c>
+      <c r="G3">
+        <v>-0.08822289114737183</v>
+      </c>
+      <c r="H3">
+        <v>0.02001067333954986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04915730860395274</v>
+        <v>0.05364653834402657</v>
       </c>
       <c r="C4">
-        <v>0.03396131558992972</v>
+        <v>-0.06183417044757216</v>
       </c>
       <c r="D4">
-        <v>-0.1236715192772447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1389826589551657</v>
+      </c>
+      <c r="E4">
+        <v>0.06323334213383962</v>
+      </c>
+      <c r="F4">
+        <v>-0.01962717233461338</v>
+      </c>
+      <c r="G4">
+        <v>0.02674848919115394</v>
+      </c>
+      <c r="H4">
+        <v>-0.02638329168227906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04408922189124905</v>
+        <v>0.040702126271344</v>
       </c>
       <c r="C6">
-        <v>0.004937248362741854</v>
+        <v>-0.0260084688609036</v>
       </c>
       <c r="D6">
-        <v>-0.1281297590448302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1281604850075031</v>
+      </c>
+      <c r="E6">
+        <v>0.03987162325726173</v>
+      </c>
+      <c r="F6">
+        <v>-0.01489680773526752</v>
+      </c>
+      <c r="G6">
+        <v>-0.01730801421800194</v>
+      </c>
+      <c r="H6">
+        <v>0.005723901988835397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02212427603331524</v>
+        <v>0.01584233235331232</v>
       </c>
       <c r="C7">
-        <v>0.01216667523161284</v>
+        <v>-0.02857503543411757</v>
       </c>
       <c r="D7">
-        <v>-0.08837905743479731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09038909906786745</v>
+      </c>
+      <c r="E7">
+        <v>0.04241821907497474</v>
+      </c>
+      <c r="F7">
+        <v>-0.01546625375752257</v>
+      </c>
+      <c r="G7">
+        <v>0.001774080956666821</v>
+      </c>
+      <c r="H7">
+        <v>0.1047038689304047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009634725940399701</v>
+        <v>0.007990191805823714</v>
       </c>
       <c r="C8">
-        <v>0.02778548118824713</v>
+        <v>-0.03719779141884955</v>
       </c>
       <c r="D8">
-        <v>-0.06268411967370913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07627809541661223</v>
+      </c>
+      <c r="E8">
+        <v>0.04332117999410347</v>
+      </c>
+      <c r="F8">
+        <v>-0.03024840695864959</v>
+      </c>
+      <c r="G8">
+        <v>-0.01440287979955887</v>
+      </c>
+      <c r="H8">
+        <v>0.03525865827059557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04029458022162218</v>
+        <v>0.04104219702479076</v>
       </c>
       <c r="C9">
-        <v>0.03351762772494968</v>
+        <v>-0.05653331099410395</v>
       </c>
       <c r="D9">
-        <v>-0.10611471048939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1166306027008696</v>
+      </c>
+      <c r="E9">
+        <v>0.044520559623795</v>
+      </c>
+      <c r="F9">
+        <v>0.001888204746331822</v>
+      </c>
+      <c r="G9">
+        <v>0.01812639128650882</v>
+      </c>
+      <c r="H9">
+        <v>0.01038717126998827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09252043195248699</v>
+        <v>0.1327159964902019</v>
       </c>
       <c r="C10">
-        <v>-0.1977974145359997</v>
+        <v>0.1915083498480969</v>
       </c>
       <c r="D10">
-        <v>0.007260142685420382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003136095288188514</v>
+      </c>
+      <c r="E10">
+        <v>0.05251877922838322</v>
+      </c>
+      <c r="F10">
+        <v>-0.01467982670685552</v>
+      </c>
+      <c r="G10">
+        <v>0.04097607318921114</v>
+      </c>
+      <c r="H10">
+        <v>-0.0005878381581938201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03438703686653236</v>
+        <v>0.0287734789712332</v>
       </c>
       <c r="C11">
-        <v>0.0361936068566003</v>
+        <v>-0.04186746446477806</v>
       </c>
       <c r="D11">
-        <v>-0.05923462175383733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05807246946709355</v>
+      </c>
+      <c r="E11">
+        <v>0.005303213027814412</v>
+      </c>
+      <c r="F11">
+        <v>-0.00679926504504144</v>
+      </c>
+      <c r="G11">
+        <v>-0.004599724306140852</v>
+      </c>
+      <c r="H11">
+        <v>0.05007978360920598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03789541828781573</v>
+        <v>0.03256100080580552</v>
       </c>
       <c r="C12">
-        <v>0.0384454467954252</v>
+        <v>-0.04381442605399688</v>
       </c>
       <c r="D12">
-        <v>-0.05815632267438613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0565408734909762</v>
+      </c>
+      <c r="E12">
+        <v>0.01590211472017134</v>
+      </c>
+      <c r="F12">
+        <v>-0.001785805019837223</v>
+      </c>
+      <c r="G12">
+        <v>-0.003237397620549913</v>
+      </c>
+      <c r="H12">
+        <v>0.06399865470097009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01471429572592487</v>
+        <v>0.01890902048789395</v>
       </c>
       <c r="C13">
-        <v>0.02541569701181575</v>
+        <v>-0.03713671975207692</v>
       </c>
       <c r="D13">
-        <v>-0.1188882851941269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1399130747420483</v>
+      </c>
+      <c r="E13">
+        <v>0.07277521688574508</v>
+      </c>
+      <c r="F13">
+        <v>-0.02878250521961687</v>
+      </c>
+      <c r="G13">
+        <v>-0.01629451496193923</v>
+      </c>
+      <c r="H13">
+        <v>0.09067997225765442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01098283088618671</v>
+        <v>0.007754279527275489</v>
       </c>
       <c r="C14">
-        <v>0.01701894089056259</v>
+        <v>-0.02288396769333906</v>
       </c>
       <c r="D14">
-        <v>-0.07995788091830783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08374789777899877</v>
+      </c>
+      <c r="E14">
+        <v>0.04022803660219869</v>
+      </c>
+      <c r="F14">
+        <v>0.01051947040536624</v>
+      </c>
+      <c r="G14">
+        <v>-0.01716671520979374</v>
+      </c>
+      <c r="H14">
+        <v>0.09600116562208159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001415696792603128</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.00877130523133152</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02747228602775393</v>
+      </c>
+      <c r="E15">
+        <v>0.00699339360583104</v>
+      </c>
+      <c r="F15">
+        <v>0.003036481205448875</v>
+      </c>
+      <c r="G15">
+        <v>-0.009198005845060189</v>
+      </c>
+      <c r="H15">
+        <v>0.01046659169785893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03628007744245695</v>
+        <v>0.02975167045623802</v>
       </c>
       <c r="C16">
-        <v>0.03789218605256296</v>
+        <v>-0.04228917435139799</v>
       </c>
       <c r="D16">
-        <v>-0.06436681452127298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0601741201801676</v>
+      </c>
+      <c r="E16">
+        <v>0.01934891008331861</v>
+      </c>
+      <c r="F16">
+        <v>0.005628403864585111</v>
+      </c>
+      <c r="G16">
+        <v>-0.01105407486767959</v>
+      </c>
+      <c r="H16">
+        <v>0.05672201888186815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00973781421894479</v>
+        <v>0.01101678406583838</v>
       </c>
       <c r="C19">
-        <v>0.01828607281182293</v>
+        <v>-0.0203744898738207</v>
       </c>
       <c r="D19">
-        <v>-0.166017574188863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1285273514270941</v>
+      </c>
+      <c r="E19">
+        <v>0.07091529796280811</v>
+      </c>
+      <c r="F19">
+        <v>0.02545556142522283</v>
+      </c>
+      <c r="G19">
+        <v>-0.02521644605590868</v>
+      </c>
+      <c r="H19">
+        <v>0.05164223613861463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0204165821385774</v>
+        <v>0.01620941040531141</v>
       </c>
       <c r="C20">
-        <v>0.01921796667638158</v>
+        <v>-0.03112636244000917</v>
       </c>
       <c r="D20">
-        <v>-0.08381652312799268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09395223514193728</v>
+      </c>
+      <c r="E20">
+        <v>0.06095379952978021</v>
+      </c>
+      <c r="F20">
+        <v>0.006412296149488411</v>
+      </c>
+      <c r="G20">
+        <v>-0.006847470363437635</v>
+      </c>
+      <c r="H20">
+        <v>0.053212553351232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008764272632816794</v>
+        <v>0.01432416262231199</v>
       </c>
       <c r="C21">
-        <v>0.02523122838071712</v>
+        <v>-0.03482027754000844</v>
       </c>
       <c r="D21">
-        <v>-0.1221838379828402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1331188667064208</v>
+      </c>
+      <c r="E21">
+        <v>0.09659933300514893</v>
+      </c>
+      <c r="F21">
+        <v>0.01310367475975124</v>
+      </c>
+      <c r="G21">
+        <v>0.02394919373372602</v>
+      </c>
+      <c r="H21">
+        <v>0.1131291237454792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004638796541521441</v>
+        <v>0.00501515042004185</v>
       </c>
       <c r="C22">
-        <v>0.02526890115463371</v>
+        <v>-0.03892268223194217</v>
       </c>
       <c r="D22">
-        <v>-0.07452148503948115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1262500544979115</v>
+      </c>
+      <c r="E22">
+        <v>0.03357308857475214</v>
+      </c>
+      <c r="F22">
+        <v>-0.07766953415224179</v>
+      </c>
+      <c r="G22">
+        <v>-0.06120244535713406</v>
+      </c>
+      <c r="H22">
+        <v>-0.03671922532901442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004671694145936934</v>
+        <v>0.005112852306590985</v>
       </c>
       <c r="C23">
-        <v>0.0252576932208903</v>
+        <v>-0.03936530033306728</v>
       </c>
       <c r="D23">
-        <v>-0.07399332203809937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1257076869819161</v>
+      </c>
+      <c r="E23">
+        <v>0.03378789754703555</v>
+      </c>
+      <c r="F23">
+        <v>-0.07757155155310354</v>
+      </c>
+      <c r="G23">
+        <v>-0.06029703436188276</v>
+      </c>
+      <c r="H23">
+        <v>-0.03685096837068779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03490334154435287</v>
+        <v>0.03133701853153344</v>
       </c>
       <c r="C24">
-        <v>0.04223241853916151</v>
+        <v>-0.05233588957348547</v>
       </c>
       <c r="D24">
-        <v>-0.0663892548241457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06488952542614437</v>
+      </c>
+      <c r="E24">
+        <v>0.02206752336439549</v>
+      </c>
+      <c r="F24">
+        <v>0.003650874973209314</v>
+      </c>
+      <c r="G24">
+        <v>-0.0006266407658915237</v>
+      </c>
+      <c r="H24">
+        <v>0.06921660885113032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0413706531287385</v>
+        <v>0.03608564490022727</v>
       </c>
       <c r="C25">
-        <v>0.04644005797734665</v>
+        <v>-0.05186129868869625</v>
       </c>
       <c r="D25">
-        <v>-0.0659492652702723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06111309355822771</v>
+      </c>
+      <c r="E25">
+        <v>0.02298659993878331</v>
+      </c>
+      <c r="F25">
+        <v>-0.007144839866603812</v>
+      </c>
+      <c r="G25">
+        <v>0.007057551469626782</v>
+      </c>
+      <c r="H25">
+        <v>0.05557701739067509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02369868405238561</v>
+        <v>0.02102401020882072</v>
       </c>
       <c r="C26">
-        <v>0.002473936978567362</v>
+        <v>-0.01606185054117605</v>
       </c>
       <c r="D26">
-        <v>-0.05274837850624607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06344611555292159</v>
+      </c>
+      <c r="E26">
+        <v>0.03097346441001171</v>
+      </c>
+      <c r="F26">
+        <v>0.00546955831737419</v>
+      </c>
+      <c r="G26">
+        <v>-0.01422218088913151</v>
+      </c>
+      <c r="H26">
+        <v>0.05275656879383407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1348341342291231</v>
+        <v>0.1881403731444796</v>
       </c>
       <c r="C28">
-        <v>-0.2764817266317832</v>
+        <v>0.2586970301723669</v>
       </c>
       <c r="D28">
-        <v>0.04508827234412251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0193063755859056</v>
+      </c>
+      <c r="E28">
+        <v>0.0742876020239169</v>
+      </c>
+      <c r="F28">
+        <v>0.002955602137668598</v>
+      </c>
+      <c r="G28">
+        <v>0.07331660706611298</v>
+      </c>
+      <c r="H28">
+        <v>0.01354844943099666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005172488633151223</v>
+        <v>0.006731029148455909</v>
       </c>
       <c r="C29">
-        <v>0.01727384542442208</v>
+        <v>-0.02218815079734732</v>
       </c>
       <c r="D29">
-        <v>-0.06361677115143434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07855007010976099</v>
+      </c>
+      <c r="E29">
+        <v>0.04320822801667632</v>
+      </c>
+      <c r="F29">
+        <v>-0.003455662889772412</v>
+      </c>
+      <c r="G29">
+        <v>-0.001109689346414772</v>
+      </c>
+      <c r="H29">
+        <v>0.09848390425560355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04250785139389853</v>
+        <v>0.04324871538136735</v>
       </c>
       <c r="C30">
-        <v>0.03031047598453095</v>
+        <v>-0.05589228362895339</v>
       </c>
       <c r="D30">
-        <v>-0.1611803802512104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1743371672374565</v>
+      </c>
+      <c r="E30">
+        <v>0.03114050617185934</v>
+      </c>
+      <c r="F30">
+        <v>-0.004930565825348421</v>
+      </c>
+      <c r="G30">
+        <v>-0.0412843798366887</v>
+      </c>
+      <c r="H30">
+        <v>0.006153504073861077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06718808096014665</v>
+        <v>0.05645234387879145</v>
       </c>
       <c r="C31">
-        <v>0.05091324386704582</v>
+        <v>-0.07155880670017141</v>
       </c>
       <c r="D31">
-        <v>-0.06192366601936114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05285035200466161</v>
+      </c>
+      <c r="E31">
+        <v>0.04130647180654433</v>
+      </c>
+      <c r="F31">
+        <v>-0.04222357355301217</v>
+      </c>
+      <c r="G31">
+        <v>0.004213289936594249</v>
+      </c>
+      <c r="H31">
+        <v>0.0329973015260315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008797175035332803</v>
+        <v>0.009834691894699713</v>
       </c>
       <c r="C32">
-        <v>0.003321757725492911</v>
+        <v>-0.01332247906090413</v>
       </c>
       <c r="D32">
-        <v>-0.05379413094983478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09037256467244488</v>
+      </c>
+      <c r="E32">
+        <v>0.09286920125362108</v>
+      </c>
+      <c r="F32">
+        <v>0.003638535678334517</v>
+      </c>
+      <c r="G32">
+        <v>0.0375179860316962</v>
+      </c>
+      <c r="H32">
+        <v>0.09485835962717257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02589354710746951</v>
+        <v>0.02446209555700248</v>
       </c>
       <c r="C33">
-        <v>0.02029286372581758</v>
+        <v>-0.04018232311981395</v>
       </c>
       <c r="D33">
-        <v>-0.1306546545810274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1308946116252397</v>
+      </c>
+      <c r="E33">
+        <v>0.05767583763231664</v>
+      </c>
+      <c r="F33">
+        <v>-0.01575859547197567</v>
+      </c>
+      <c r="G33">
+        <v>-0.008015030589739991</v>
+      </c>
+      <c r="H33">
+        <v>0.06264637712610649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03376738184863054</v>
+        <v>0.0287522137567551</v>
       </c>
       <c r="C34">
-        <v>0.05778440369129224</v>
+        <v>-0.05998884052745421</v>
       </c>
       <c r="D34">
-        <v>-0.06838693490646713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05995789218410626</v>
+      </c>
+      <c r="E34">
+        <v>0.004450899866785106</v>
+      </c>
+      <c r="F34">
+        <v>0.002758284039802881</v>
+      </c>
+      <c r="G34">
+        <v>0.0005100940098185892</v>
+      </c>
+      <c r="H34">
+        <v>0.07529090552027885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006776555270378038</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003136816528425317</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003718100945316202</v>
+      </c>
+      <c r="E35">
+        <v>0.0007826231464006306</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001149938215867525</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009879360496459454</v>
+      </c>
+      <c r="H35">
+        <v>0.002338088777197571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02121128716159604</v>
+        <v>0.01901247491584376</v>
       </c>
       <c r="C36">
-        <v>-0.0001499555850265894</v>
+        <v>-0.01400314903643222</v>
       </c>
       <c r="D36">
-        <v>-0.0710527378223058</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07619967599326261</v>
+      </c>
+      <c r="E36">
+        <v>0.03989342184567211</v>
+      </c>
+      <c r="F36">
+        <v>0.003745741399760426</v>
+      </c>
+      <c r="G36">
+        <v>0.002199158105488115</v>
+      </c>
+      <c r="H36">
+        <v>0.05025365098500451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02780681770492065</v>
+        <v>0.02199583895823233</v>
       </c>
       <c r="C38">
-        <v>0.01543399455025676</v>
+        <v>-0.02085585160288328</v>
       </c>
       <c r="D38">
-        <v>-0.05574910146703771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06002703686824611</v>
+      </c>
+      <c r="E38">
+        <v>0.0461525295577757</v>
+      </c>
+      <c r="F38">
+        <v>0.004956000794536158</v>
+      </c>
+      <c r="G38">
+        <v>-0.04141665270204302</v>
+      </c>
+      <c r="H38">
+        <v>0.03247706979395693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04070706306103886</v>
+        <v>0.03702697906173021</v>
       </c>
       <c r="C39">
-        <v>0.04969576907551423</v>
+        <v>-0.06217798425810854</v>
       </c>
       <c r="D39">
-        <v>-0.08941286553872642</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1029855987131772</v>
+      </c>
+      <c r="E39">
+        <v>0.01969713195605794</v>
+      </c>
+      <c r="F39">
+        <v>0.01958984943348322</v>
+      </c>
+      <c r="G39">
+        <v>-0.01836167979934673</v>
+      </c>
+      <c r="H39">
+        <v>0.083427545601683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01703415401328271</v>
+        <v>0.01485952064947188</v>
       </c>
       <c r="C40">
-        <v>0.04065921670337421</v>
+        <v>-0.03567128048628626</v>
       </c>
       <c r="D40">
-        <v>-0.07601936667282917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08270805976777049</v>
+      </c>
+      <c r="E40">
+        <v>0.07808220440460194</v>
+      </c>
+      <c r="F40">
+        <v>-0.0514174781255977</v>
+      </c>
+      <c r="G40">
+        <v>-0.05155710288661128</v>
+      </c>
+      <c r="H40">
+        <v>0.152410867911653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02497567603185138</v>
+        <v>0.02318739564875795</v>
       </c>
       <c r="C41">
-        <v>-0.01017886823149789</v>
+        <v>-0.007462275968915599</v>
       </c>
       <c r="D41">
-        <v>-0.06710754093565598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05702628104350133</v>
+      </c>
+      <c r="E41">
+        <v>0.05569841343010377</v>
+      </c>
+      <c r="F41">
+        <v>0.001768387266281461</v>
+      </c>
+      <c r="G41">
+        <v>-0.01231420756602373</v>
+      </c>
+      <c r="H41">
+        <v>0.04186919837763162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03472348113235284</v>
+        <v>0.02544514132033502</v>
       </c>
       <c r="C43">
-        <v>0.0004111045757457809</v>
+        <v>-0.01767712416945293</v>
       </c>
       <c r="D43">
-        <v>-0.1043932913027209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08735717632660414</v>
+      </c>
+      <c r="E43">
+        <v>0.04287537474310201</v>
+      </c>
+      <c r="F43">
+        <v>-0.004231790693825683</v>
+      </c>
+      <c r="G43">
+        <v>-0.01760060469728656</v>
+      </c>
+      <c r="H43">
+        <v>0.0610586890977902</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01360783776423052</v>
+        <v>0.01695564380659867</v>
       </c>
       <c r="C44">
-        <v>0.03877738193074502</v>
+        <v>-0.04048566053084712</v>
       </c>
       <c r="D44">
-        <v>-0.08481673178211419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09458552216409284</v>
+      </c>
+      <c r="E44">
+        <v>0.077225845039485</v>
+      </c>
+      <c r="F44">
+        <v>0.002125029124524578</v>
+      </c>
+      <c r="G44">
+        <v>0.001789601171179078</v>
+      </c>
+      <c r="H44">
+        <v>0.07340726396851929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01991637982518288</v>
+        <v>0.01658876980731038</v>
       </c>
       <c r="C46">
-        <v>0.01754453591518121</v>
+        <v>-0.02897126120542876</v>
       </c>
       <c r="D46">
-        <v>-0.0716976037913421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08613188994740439</v>
+      </c>
+      <c r="E46">
+        <v>0.04461169502859907</v>
+      </c>
+      <c r="F46">
+        <v>0.02027207873119979</v>
+      </c>
+      <c r="G46">
+        <v>0.008997342823261171</v>
+      </c>
+      <c r="H46">
+        <v>0.101129708631094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09442618952717367</v>
+        <v>0.08567116799508338</v>
       </c>
       <c r="C47">
-        <v>0.06780011924570092</v>
+        <v>-0.08820954846266249</v>
       </c>
       <c r="D47">
-        <v>-0.04044744896760784</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03378484234514781</v>
+      </c>
+      <c r="E47">
+        <v>0.03962323179415207</v>
+      </c>
+      <c r="F47">
+        <v>-0.02395753292212924</v>
+      </c>
+      <c r="G47">
+        <v>0.05618448241635928</v>
+      </c>
+      <c r="H47">
+        <v>0.01815141947912909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02107928540692081</v>
+        <v>0.01960894604485178</v>
       </c>
       <c r="C48">
-        <v>0.005709435218079074</v>
+        <v>-0.01788933793184402</v>
       </c>
       <c r="D48">
-        <v>-0.07012394643357468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07693477261852008</v>
+      </c>
+      <c r="E48">
+        <v>0.05452830700381977</v>
+      </c>
+      <c r="F48">
+        <v>0.01458654255518482</v>
+      </c>
+      <c r="G48">
+        <v>-0.0008637090350672934</v>
+      </c>
+      <c r="H48">
+        <v>0.05186347635171745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07852831933271102</v>
+        <v>0.06120027987474342</v>
       </c>
       <c r="C50">
-        <v>0.06279457016836845</v>
+        <v>-0.06963682890352588</v>
       </c>
       <c r="D50">
-        <v>-0.06759232490890008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05962713698746716</v>
+      </c>
+      <c r="E50">
+        <v>0.04878246344285519</v>
+      </c>
+      <c r="F50">
+        <v>-0.04417384111848294</v>
+      </c>
+      <c r="G50">
+        <v>-0.01606266481960163</v>
+      </c>
+      <c r="H50">
+        <v>0.03152802554439802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007746196200172513</v>
+        <v>0.007707137979521944</v>
       </c>
       <c r="C51">
-        <v>0.0116217494590574</v>
+        <v>-0.01460782974095524</v>
       </c>
       <c r="D51">
-        <v>-0.07492329890583006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08529534410179693</v>
+      </c>
+      <c r="E51">
+        <v>0.03232435293070765</v>
+      </c>
+      <c r="F51">
+        <v>0.004785641639630645</v>
+      </c>
+      <c r="G51">
+        <v>-0.02133578766686696</v>
+      </c>
+      <c r="H51">
+        <v>0.07651037736512795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07696249370577753</v>
+        <v>0.08687506768123919</v>
       </c>
       <c r="C53">
-        <v>0.08748550001182608</v>
+        <v>-0.0998136506078932</v>
       </c>
       <c r="D53">
-        <v>-0.0183327233407702</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004785919597370793</v>
+      </c>
+      <c r="E53">
+        <v>0.09945474994898522</v>
+      </c>
+      <c r="F53">
+        <v>-0.02902885435485008</v>
+      </c>
+      <c r="G53">
+        <v>0.09770036072844847</v>
+      </c>
+      <c r="H53">
+        <v>-0.009046259968366045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03419484599091214</v>
+        <v>0.02770929885417211</v>
       </c>
       <c r="C54">
-        <v>0.02701935268217672</v>
+        <v>-0.03415027135924496</v>
       </c>
       <c r="D54">
-        <v>-0.08461635044936279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08616525790721019</v>
+      </c>
+      <c r="E54">
+        <v>0.0456786346308365</v>
+      </c>
+      <c r="F54">
+        <v>0.01802806759408368</v>
+      </c>
+      <c r="G54">
+        <v>-0.01886953756886817</v>
+      </c>
+      <c r="H54">
+        <v>0.1074384526185504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08745323599658875</v>
+        <v>0.08493774014737462</v>
       </c>
       <c r="C55">
-        <v>0.06696488568587694</v>
+        <v>-0.08091474711301379</v>
       </c>
       <c r="D55">
-        <v>0.001061440823960531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01218114429133553</v>
+      </c>
+      <c r="E55">
+        <v>0.05920814834988335</v>
+      </c>
+      <c r="F55">
+        <v>-0.03272262860804955</v>
+      </c>
+      <c r="G55">
+        <v>0.04632870651905746</v>
+      </c>
+      <c r="H55">
+        <v>-0.01883334629757128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1374581580890541</v>
+        <v>0.1333430343926167</v>
       </c>
       <c r="C56">
-        <v>0.1029619386257489</v>
+        <v>-0.124533767310039</v>
       </c>
       <c r="D56">
-        <v>-0.005331970533437702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01297411252476481</v>
+      </c>
+      <c r="E56">
+        <v>0.06086472290889692</v>
+      </c>
+      <c r="F56">
+        <v>-0.0195705698862608</v>
+      </c>
+      <c r="G56">
+        <v>0.06482936762084819</v>
+      </c>
+      <c r="H56">
+        <v>-0.01507814946277901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03323700184229719</v>
+        <v>0.03445887914672999</v>
       </c>
       <c r="C58">
-        <v>-0.02387831594043919</v>
+        <v>-0.01918562470367143</v>
       </c>
       <c r="D58">
-        <v>-0.3906171168203975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3793210680775547</v>
+      </c>
+      <c r="E58">
+        <v>0.2269609797284551</v>
+      </c>
+      <c r="F58">
+        <v>-0.113544329865428</v>
+      </c>
+      <c r="G58">
+        <v>-0.3157287081528594</v>
+      </c>
+      <c r="H58">
+        <v>-0.4459135831555358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1357523186618687</v>
+        <v>0.1702925832932833</v>
       </c>
       <c r="C59">
-        <v>-0.1957406699888533</v>
+        <v>0.1738979518901497</v>
       </c>
       <c r="D59">
-        <v>-0.01447598455033213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04479327632473083</v>
+      </c>
+      <c r="E59">
+        <v>0.01944587452006207</v>
+      </c>
+      <c r="F59">
+        <v>0.03672528520628658</v>
+      </c>
+      <c r="G59">
+        <v>0.002012286846270077</v>
+      </c>
+      <c r="H59">
+        <v>-0.02037284068642218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2579882011719484</v>
+        <v>0.2348628592113844</v>
       </c>
       <c r="C60">
-        <v>0.04958511792352888</v>
+        <v>-0.09247464582814209</v>
       </c>
       <c r="D60">
-        <v>-0.1557755450896787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1213793786736094</v>
+      </c>
+      <c r="E60">
+        <v>-0.3538988959386113</v>
+      </c>
+      <c r="F60">
+        <v>-0.07999258244445473</v>
+      </c>
+      <c r="G60">
+        <v>0.02580875395966001</v>
+      </c>
+      <c r="H60">
+        <v>-0.06526179080027418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04598398769528352</v>
+        <v>0.04184635076969877</v>
       </c>
       <c r="C61">
-        <v>0.04809745000249536</v>
+        <v>-0.05752315308901801</v>
       </c>
       <c r="D61">
-        <v>-0.09859001780442973</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09461012335276486</v>
+      </c>
+      <c r="E61">
+        <v>0.01794662990988078</v>
+      </c>
+      <c r="F61">
+        <v>0.009485912505189832</v>
+      </c>
+      <c r="G61">
+        <v>0.0038737273125836</v>
+      </c>
+      <c r="H61">
+        <v>0.07929145741678127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01676342357371381</v>
+        <v>0.01583320747507206</v>
       </c>
       <c r="C63">
-        <v>0.01630854990113345</v>
+        <v>-0.03027129618943821</v>
       </c>
       <c r="D63">
-        <v>-0.06125052375592288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07044693359373363</v>
+      </c>
+      <c r="E63">
+        <v>0.05080618391294683</v>
+      </c>
+      <c r="F63">
+        <v>-0.02453758436150453</v>
+      </c>
+      <c r="G63">
+        <v>-0.01697904774627124</v>
+      </c>
+      <c r="H63">
+        <v>0.04171687089015312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0575515551663544</v>
+        <v>0.05517954337959222</v>
       </c>
       <c r="C64">
-        <v>0.05994886154992601</v>
+        <v>-0.076761174410285</v>
       </c>
       <c r="D64">
-        <v>-0.05965455695874587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05538924452907468</v>
+      </c>
+      <c r="E64">
+        <v>0.03595297235378073</v>
+      </c>
+      <c r="F64">
+        <v>0.01822383031694108</v>
+      </c>
+      <c r="G64">
+        <v>0.03868565037735845</v>
+      </c>
+      <c r="H64">
+        <v>0.0541581060293799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06101739531358222</v>
+        <v>0.05215634635464372</v>
       </c>
       <c r="C65">
-        <v>0.000690722929811451</v>
+        <v>-0.02575593245094145</v>
       </c>
       <c r="D65">
-        <v>-0.1153776537600323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1199389397092447</v>
+      </c>
+      <c r="E65">
+        <v>0.006676550491793572</v>
+      </c>
+      <c r="F65">
+        <v>-0.0201354184898764</v>
+      </c>
+      <c r="G65">
+        <v>-0.0344811706499161</v>
+      </c>
+      <c r="H65">
+        <v>-0.03614943113971512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04579457111524722</v>
+        <v>0.04361862196941993</v>
       </c>
       <c r="C66">
-        <v>0.05026613903377997</v>
+        <v>-0.06950571779417793</v>
       </c>
       <c r="D66">
-        <v>-0.113419367205697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1298347847856619</v>
+      </c>
+      <c r="E66">
+        <v>0.02320673707088387</v>
+      </c>
+      <c r="F66">
+        <v>0.01020154455365931</v>
+      </c>
+      <c r="G66">
+        <v>-0.01987565183377262</v>
+      </c>
+      <c r="H66">
+        <v>0.05730154647422168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04594667838294969</v>
+        <v>0.03887095259817942</v>
       </c>
       <c r="C67">
-        <v>0.02349720016888422</v>
+        <v>-0.02644723853245104</v>
       </c>
       <c r="D67">
-        <v>-0.02840289266391868</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02447125659380587</v>
+      </c>
+      <c r="E67">
+        <v>0.02913389324884615</v>
+      </c>
+      <c r="F67">
+        <v>-0.003376853991866889</v>
+      </c>
+      <c r="G67">
+        <v>-0.03932685916386617</v>
+      </c>
+      <c r="H67">
+        <v>0.03092341493726639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1663644212217739</v>
+        <v>0.1925356871283422</v>
       </c>
       <c r="C68">
-        <v>-0.2546587219214378</v>
+        <v>0.2090730236444006</v>
       </c>
       <c r="D68">
-        <v>0.01937195840879524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0160631133852601</v>
+      </c>
+      <c r="E68">
+        <v>0.05451503600849401</v>
+      </c>
+      <c r="F68">
+        <v>-0.02481869161587689</v>
+      </c>
+      <c r="G68">
+        <v>-0.008653837430931585</v>
+      </c>
+      <c r="H68">
+        <v>-0.01299280819462005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08557292298108879</v>
+        <v>0.07837841729577989</v>
       </c>
       <c r="C69">
-        <v>0.08064151653707971</v>
+        <v>-0.09703878078040078</v>
       </c>
       <c r="D69">
-        <v>-0.05231957536490545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04733235521738272</v>
+      </c>
+      <c r="E69">
+        <v>0.03080940842482596</v>
+      </c>
+      <c r="F69">
+        <v>-0.003498203408287617</v>
+      </c>
+      <c r="G69">
+        <v>0.03346842900316357</v>
+      </c>
+      <c r="H69">
+        <v>0.02874344884557665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1389673725371124</v>
+        <v>0.1763281943620821</v>
       </c>
       <c r="C71">
-        <v>-0.2503900196737403</v>
+        <v>0.2206133823119837</v>
       </c>
       <c r="D71">
-        <v>-0.01322954044502359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03639401994470064</v>
+      </c>
+      <c r="E71">
+        <v>0.05481458505583534</v>
+      </c>
+      <c r="F71">
+        <v>-0.02273568198753214</v>
+      </c>
+      <c r="G71">
+        <v>0.03393063169122566</v>
+      </c>
+      <c r="H71">
+        <v>0.01928903893804177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09913251531978026</v>
+        <v>0.1016785774724625</v>
       </c>
       <c r="C72">
-        <v>0.03394491564150071</v>
+        <v>-0.06263659489617694</v>
       </c>
       <c r="D72">
-        <v>-0.09378821217999352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09778485887189825</v>
+      </c>
+      <c r="E72">
+        <v>-0.02402904527324473</v>
+      </c>
+      <c r="F72">
+        <v>-0.03446868711269002</v>
+      </c>
+      <c r="G72">
+        <v>0.01593473397251458</v>
+      </c>
+      <c r="H72">
+        <v>0.03156175069399057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3159683692610081</v>
+        <v>0.2663761978741212</v>
       </c>
       <c r="C73">
-        <v>0.004687311173576359</v>
+        <v>-0.07638911214895798</v>
       </c>
       <c r="D73">
-        <v>-0.2716688887866779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1988378449899742</v>
+      </c>
+      <c r="E73">
+        <v>-0.67158626531222</v>
+      </c>
+      <c r="F73">
+        <v>-0.09227158187470413</v>
+      </c>
+      <c r="G73">
+        <v>-0.02104830254145516</v>
+      </c>
+      <c r="H73">
+        <v>-0.1267786323951481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1038148228126754</v>
+        <v>0.1018042969390329</v>
       </c>
       <c r="C74">
-        <v>0.06540575674997154</v>
+        <v>-0.08830564237499267</v>
       </c>
       <c r="D74">
-        <v>-0.02017339456152145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002024310679872054</v>
+      </c>
+      <c r="E74">
+        <v>0.08479105662641992</v>
+      </c>
+      <c r="F74">
+        <v>-0.04257669075873023</v>
+      </c>
+      <c r="G74">
+        <v>0.06617815480835175</v>
+      </c>
+      <c r="H74">
+        <v>-0.04460981478487439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2458916109911501</v>
+        <v>0.2375734268096434</v>
       </c>
       <c r="C75">
-        <v>0.136222873877173</v>
+        <v>-0.1675355899587546</v>
       </c>
       <c r="D75">
-        <v>0.0582043942973066</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1036752256361807</v>
+      </c>
+      <c r="E75">
+        <v>0.07555982392200816</v>
+      </c>
+      <c r="F75">
+        <v>0.00685812659105855</v>
+      </c>
+      <c r="G75">
+        <v>0.112689551082337</v>
+      </c>
+      <c r="H75">
+        <v>-0.1281015106733772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1270232822098241</v>
+        <v>0.1262335440661982</v>
       </c>
       <c r="C76">
-        <v>0.08707759231388289</v>
+        <v>-0.1130060657261462</v>
       </c>
       <c r="D76">
-        <v>0.006254688759065841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02091754612617828</v>
+      </c>
+      <c r="E76">
+        <v>0.1155794049273255</v>
+      </c>
+      <c r="F76">
+        <v>-0.01383522838705053</v>
+      </c>
+      <c r="G76">
+        <v>0.06464498743033548</v>
+      </c>
+      <c r="H76">
+        <v>-0.009392788525070733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07423792772807243</v>
+        <v>0.06681420165854941</v>
       </c>
       <c r="C77">
-        <v>0.04973007369135125</v>
+        <v>-0.06766692299192262</v>
       </c>
       <c r="D77">
-        <v>-0.06938861289162224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1345064591947758</v>
+      </c>
+      <c r="E77">
+        <v>0.1248379488967813</v>
+      </c>
+      <c r="F77">
+        <v>0.2854789990661338</v>
+      </c>
+      <c r="G77">
+        <v>-0.01787230195861446</v>
+      </c>
+      <c r="H77">
+        <v>-0.2269630658885909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03771965269135293</v>
+        <v>0.03959230940328104</v>
       </c>
       <c r="C78">
-        <v>0.04548755009616233</v>
+        <v>-0.05984613373341105</v>
       </c>
       <c r="D78">
-        <v>-0.1109598939410022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1238592564547446</v>
+      </c>
+      <c r="E78">
+        <v>0.02792217207830115</v>
+      </c>
+      <c r="F78">
+        <v>-0.02089179980305534</v>
+      </c>
+      <c r="G78">
+        <v>0.02134313838862986</v>
+      </c>
+      <c r="H78">
+        <v>0.04809649927806293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0006434531222921108</v>
+        <v>0.04150972116088981</v>
       </c>
       <c r="C79">
-        <v>-0.0006356448147154366</v>
+        <v>-0.08498696623030863</v>
       </c>
       <c r="D79">
-        <v>-0.01697146965925424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03073492075006554</v>
+      </c>
+      <c r="E79">
+        <v>0.1672566250553653</v>
+      </c>
+      <c r="F79">
+        <v>-0.07730807233276549</v>
+      </c>
+      <c r="G79">
+        <v>0.6249838500090873</v>
+      </c>
+      <c r="H79">
+        <v>-0.4150160099198597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.029185844162412</v>
+        <v>0.02525584106214726</v>
       </c>
       <c r="C80">
-        <v>0.01469813843411378</v>
+        <v>-0.03573193430359733</v>
       </c>
       <c r="D80">
-        <v>-0.02480004698568664</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03532206697465738</v>
+      </c>
+      <c r="E80">
+        <v>0.01576676118882762</v>
+      </c>
+      <c r="F80">
+        <v>0.03967097632125829</v>
+      </c>
+      <c r="G80">
+        <v>-0.05054042650264483</v>
+      </c>
+      <c r="H80">
+        <v>0.0277360228547147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1423163673427374</v>
+        <v>0.1313458494526258</v>
       </c>
       <c r="C81">
-        <v>0.1000143003750768</v>
+        <v>-0.1184318465723748</v>
       </c>
       <c r="D81">
-        <v>0.04719813567319728</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07111117029107497</v>
+      </c>
+      <c r="E81">
+        <v>0.1123394885791406</v>
+      </c>
+      <c r="F81">
+        <v>-0.002312670016678385</v>
+      </c>
+      <c r="G81">
+        <v>0.06235204305377347</v>
+      </c>
+      <c r="H81">
+        <v>-0.03697011289783728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2864329582105702</v>
+        <v>0.248628300743978</v>
       </c>
       <c r="C82">
-        <v>0.2678249522668585</v>
+        <v>-0.2478979357007706</v>
       </c>
       <c r="D82">
-        <v>0.2222787520022755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.221205254950137</v>
+      </c>
+      <c r="E82">
+        <v>7.44001864962476e-05</v>
+      </c>
+      <c r="F82">
+        <v>-0.04251367709876137</v>
+      </c>
+      <c r="G82">
+        <v>0.1773319721651574</v>
+      </c>
+      <c r="H82">
+        <v>0.5049922553373658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02794133805708575</v>
+        <v>0.02286962218354751</v>
       </c>
       <c r="C83">
-        <v>0.04447276206889596</v>
+        <v>-0.05030528294115139</v>
       </c>
       <c r="D83">
-        <v>-0.04940093174209104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05209484794915552</v>
+      </c>
+      <c r="E83">
+        <v>0.009434853856197361</v>
+      </c>
+      <c r="F83">
+        <v>0.02513530296551159</v>
+      </c>
+      <c r="G83">
+        <v>-0.002357735393087665</v>
+      </c>
+      <c r="H83">
+        <v>0.03373707851007821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.828406548389167e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004778516555192983</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0146185551875834</v>
+      </c>
+      <c r="E84">
+        <v>0.01495039944174907</v>
+      </c>
+      <c r="F84">
+        <v>-0.005169590289575666</v>
+      </c>
+      <c r="G84">
+        <v>-0.009571478882712656</v>
+      </c>
+      <c r="H84">
+        <v>0.001424428995781037</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1819004817505622</v>
+        <v>0.1634462433674988</v>
       </c>
       <c r="C85">
-        <v>0.09355373898145262</v>
+        <v>-0.131328115441369</v>
       </c>
       <c r="D85">
-        <v>0.04220695951389464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.07375212181668073</v>
+      </c>
+      <c r="E85">
+        <v>0.04392065479709398</v>
+      </c>
+      <c r="F85">
+        <v>-0.03672781883275435</v>
+      </c>
+      <c r="G85">
+        <v>0.1072040734114891</v>
+      </c>
+      <c r="H85">
+        <v>-0.1061915194304272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01482907380116904</v>
+        <v>0.01961099142303748</v>
       </c>
       <c r="C86">
-        <v>0.01905638929556708</v>
+        <v>-0.02144889743524474</v>
       </c>
       <c r="D86">
-        <v>-0.1343092510284489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1229605931664605</v>
+      </c>
+      <c r="E86">
+        <v>0.01541302309334049</v>
+      </c>
+      <c r="F86">
+        <v>0.006969929526259099</v>
+      </c>
+      <c r="G86">
+        <v>0.02181537616960425</v>
+      </c>
+      <c r="H86">
+        <v>0.07141659603793636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02715556683457688</v>
+        <v>0.03239507855891761</v>
       </c>
       <c r="C87">
-        <v>0.0009802419527338709</v>
+        <v>-0.02465703761364483</v>
       </c>
       <c r="D87">
-        <v>-0.08833271496723143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1246188178795869</v>
+      </c>
+      <c r="E87">
+        <v>0.08645877821822769</v>
+      </c>
+      <c r="F87">
+        <v>0.01891011981826047</v>
+      </c>
+      <c r="G87">
+        <v>-0.01415805819761112</v>
+      </c>
+      <c r="H87">
+        <v>0.02944599256879507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08242990505288517</v>
+        <v>0.07440184839583348</v>
       </c>
       <c r="C88">
-        <v>0.04033077580061818</v>
+        <v>-0.05819069596776284</v>
       </c>
       <c r="D88">
-        <v>-0.0453303632062687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02717520421164666</v>
+      </c>
+      <c r="E88">
+        <v>0.02968519923308077</v>
+      </c>
+      <c r="F88">
+        <v>-0.001617161249324859</v>
+      </c>
+      <c r="G88">
+        <v>-0.007219269784682141</v>
+      </c>
+      <c r="H88">
+        <v>0.028247405964974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1989130683356413</v>
+        <v>0.2649000046019453</v>
       </c>
       <c r="C89">
-        <v>-0.3636349274520645</v>
+        <v>0.3555529656312569</v>
       </c>
       <c r="D89">
-        <v>0.05448432093238867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01495100280496533</v>
+      </c>
+      <c r="E89">
+        <v>0.05999211953963801</v>
+      </c>
+      <c r="F89">
+        <v>0.04312639935237002</v>
+      </c>
+      <c r="G89">
+        <v>0.01798460691717625</v>
+      </c>
+      <c r="H89">
+        <v>0.06306117484233295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1962469491678688</v>
+        <v>0.2330897173288476</v>
       </c>
       <c r="C90">
-        <v>-0.2983684281230455</v>
+        <v>0.264847340060161</v>
       </c>
       <c r="D90">
-        <v>0.05422935718790845</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005330521265558208</v>
+      </c>
+      <c r="E90">
+        <v>0.05614550561716157</v>
+      </c>
+      <c r="F90">
+        <v>-0.002353142937676527</v>
+      </c>
+      <c r="G90">
+        <v>-0.04415338076121079</v>
+      </c>
+      <c r="H90">
+        <v>0.04172567459102525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1818575101373419</v>
+        <v>0.1678869144076744</v>
       </c>
       <c r="C91">
-        <v>0.1326639478527179</v>
+        <v>-0.1587049935128995</v>
       </c>
       <c r="D91">
-        <v>0.05874454321436916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08457545055679658</v>
+      </c>
+      <c r="E91">
+        <v>0.09720765074747574</v>
+      </c>
+      <c r="F91">
+        <v>-0.01760193215550461</v>
+      </c>
+      <c r="G91">
+        <v>0.1017984458685415</v>
+      </c>
+      <c r="H91">
+        <v>-0.1207815592569929</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1612020568501598</v>
+        <v>0.2101778889040049</v>
       </c>
       <c r="C92">
-        <v>-0.2891820913461704</v>
+        <v>0.2767796330796748</v>
       </c>
       <c r="D92">
-        <v>0.01451950016745119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01125185207287462</v>
+      </c>
+      <c r="E92">
+        <v>0.08746186447891108</v>
+      </c>
+      <c r="F92">
+        <v>0.03532105377046466</v>
+      </c>
+      <c r="G92">
+        <v>0.0008473080802339691</v>
+      </c>
+      <c r="H92">
+        <v>0.0388625805693705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2256122498803033</v>
+        <v>0.2575176021167766</v>
       </c>
       <c r="C93">
-        <v>-0.3209915386416302</v>
+        <v>0.2778460341126011</v>
       </c>
       <c r="D93">
-        <v>0.0341128282027838</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01534799003066247</v>
+      </c>
+      <c r="E93">
+        <v>0.02731219539689799</v>
+      </c>
+      <c r="F93">
+        <v>-0.03463734893560025</v>
+      </c>
+      <c r="G93">
+        <v>0.006584134224782002</v>
+      </c>
+      <c r="H93">
+        <v>0.005453893192294177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3858758268146785</v>
+        <v>0.3352884120743365</v>
       </c>
       <c r="C94">
-        <v>0.2489582826040213</v>
+        <v>-0.2606134408758147</v>
       </c>
       <c r="D94">
-        <v>0.4656802888589119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4462978936401906</v>
+      </c>
+      <c r="E94">
+        <v>0.1083803424203259</v>
+      </c>
+      <c r="F94">
+        <v>0.04165392205650398</v>
+      </c>
+      <c r="G94">
+        <v>-0.5906622044088843</v>
+      </c>
+      <c r="H94">
+        <v>-0.1473274963416668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08634103518686062</v>
+        <v>0.0746733268570848</v>
       </c>
       <c r="C95">
-        <v>0.0595813597792369</v>
+        <v>-0.05801865924600345</v>
       </c>
       <c r="D95">
-        <v>-0.1221558000302218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0908949237519335</v>
+      </c>
+      <c r="E95">
+        <v>-0.09889552657690959</v>
+      </c>
+      <c r="F95">
+        <v>0.9103068502693589</v>
+      </c>
+      <c r="G95">
+        <v>0.05780891807355726</v>
+      </c>
+      <c r="H95">
+        <v>-0.02326555055110564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1786821353497636</v>
+        <v>0.1659416531751227</v>
       </c>
       <c r="C98">
-        <v>0.0117725922987641</v>
+        <v>-0.05423350908485198</v>
       </c>
       <c r="D98">
-        <v>-0.1459280222636176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1342236511000287</v>
+      </c>
+      <c r="E98">
+        <v>-0.294170043243904</v>
+      </c>
+      <c r="F98">
+        <v>-0.08469423157416595</v>
+      </c>
+      <c r="G98">
+        <v>0.03335285194075106</v>
+      </c>
+      <c r="H98">
+        <v>-0.0118143852383667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005012536387238334</v>
+        <v>0.006893136962672456</v>
       </c>
       <c r="C101">
-        <v>0.01664471325994809</v>
+        <v>-0.02119144151670358</v>
       </c>
       <c r="D101">
-        <v>-0.06324331096819195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07841122685594847</v>
+      </c>
+      <c r="E101">
+        <v>0.04422484603185817</v>
+      </c>
+      <c r="F101">
+        <v>-0.002477956898359048</v>
+      </c>
+      <c r="G101">
+        <v>-0.0004432149957978269</v>
+      </c>
+      <c r="H101">
+        <v>0.09865199446796216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1252007366221368</v>
+        <v>0.1121308334407064</v>
       </c>
       <c r="C102">
-        <v>0.1122285236210181</v>
+        <v>-0.1186087766807374</v>
       </c>
       <c r="D102">
-        <v>0.03490899740405726</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04959592293883337</v>
+      </c>
+      <c r="E102">
+        <v>0.02995933218727602</v>
+      </c>
+      <c r="F102">
+        <v>0.01920918047750613</v>
+      </c>
+      <c r="G102">
+        <v>0.05750708575819424</v>
+      </c>
+      <c r="H102">
+        <v>0.02077917718065133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
